--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="951">
   <si>
     <t>anchor score</t>
   </si>
@@ -358,460 +358,460 @@
     <t>manager</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>enjoy</t>
   </si>
   <si>
     <t>creative</t>
@@ -3232,10 +3232,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K5">
         <v>0.9166666666666666</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K6">
         <v>0.8813559322033898</v>
@@ -3614,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K9">
         <v>0.8267716535433071</v>
@@ -3664,7 +3664,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -3764,7 +3764,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K12">
         <v>0.759493670886076</v>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K13">
         <v>0.7301587301587301</v>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K14">
         <v>0.7017543859649122</v>
@@ -4014,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K17">
         <v>0.6666666666666666</v>
@@ -4064,28 +4064,28 @@
         <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>0.6652360515021459</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L18">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4114,28 +4114,28 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="K19">
-        <v>0.6521739130434783</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4214,7 +4214,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K21">
         <v>0.6170212765957447</v>
@@ -4314,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K23">
         <v>0.5915492957746479</v>
@@ -4364,28 +4364,28 @@
         <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K24">
-        <v>0.5548780487804879</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="L24">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4414,28 +4414,28 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="K25">
-        <v>0.5444444444444444</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4467,13 +4467,13 @@
         <v>265</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4614,7 +4614,7 @@
         <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29">
         <v>0.5</v>
@@ -4664,7 +4664,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K30">
         <v>0.5</v>
@@ -4914,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K35">
         <v>0.4432989690721649</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K36">
         <v>0.4411764705882353</v>
@@ -5114,7 +5114,7 @@
         <v>10</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K39">
         <v>0.4204545454545455</v>
@@ -5464,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K46">
         <v>0.387434554973822</v>
@@ -6064,7 +6064,7 @@
         <v>6</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K58">
         <v>0.3333333333333333</v>
@@ -7014,7 +7014,7 @@
         <v>15</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K77">
         <v>0.2777777777777778</v>
@@ -7214,7 +7214,7 @@
         <v>16</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K81">
         <v>0.2727272727272727</v>
@@ -7564,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K88">
         <v>0.2594339622641509</v>
@@ -8314,7 +8314,7 @@
         <v>23</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K103">
         <v>0.2439024390243902</v>
@@ -8514,7 +8514,7 @@
         <v>12</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K107">
         <v>0.2315789473684211</v>
@@ -8593,25 +8593,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.0759493670886076</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C109">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>330</v>
@@ -8646,22 +8646,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>331</v>
@@ -8699,13 +8699,13 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F111">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -8746,22 +8746,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
         <v>6</v>
       </c>
-      <c r="D112">
-        <v>161</v>
-      </c>
       <c r="E112">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F112">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>333</v>
@@ -8793,25 +8793,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>334</v>
@@ -8843,25 +8843,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F114">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>335</v>
@@ -8946,22 +8946,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>337</v>
@@ -8999,22 +8999,22 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>14</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K117">
         <v>0.2222222222222222</v>
@@ -9046,22 +9046,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>338</v>
@@ -9093,25 +9093,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>339</v>
@@ -9143,13 +9143,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>340</v>
@@ -9193,25 +9193,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.06493506493506493</v>
+        <v>0.0625</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>77</v>
@@ -9243,13 +9243,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>341</v>
@@ -9299,22 +9299,22 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>15</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K123">
         <v>0.2173913043478261</v>
@@ -9364,7 +9364,7 @@
         <v>15</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K124">
         <v>0.2166666666666667</v>
@@ -9393,7 +9393,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>105</v>
@@ -9443,25 +9443,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>342</v>
@@ -9499,16 +9499,16 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>16</v>
@@ -9549,16 +9549,16 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>16</v>
@@ -9593,28 +9593,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E129">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K129">
         <v>0.2101449275362319</v>
@@ -9643,28 +9643,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K130">
         <v>0.2068965517241379</v>
@@ -9693,25 +9693,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>344</v>
@@ -9743,25 +9743,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>345</v>
@@ -9796,10 +9796,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>346</v>
@@ -9849,16 +9849,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>18</v>
@@ -9893,13 +9893,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>347</v>
@@ -9943,25 +9943,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E136">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>50</v>
@@ -9993,25 +9993,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>348</v>
@@ -10043,25 +10043,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>49</v>
@@ -10093,25 +10093,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F139">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>349</v>
@@ -10143,25 +10143,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>350</v>
@@ -10193,25 +10193,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>51</v>
@@ -10243,25 +10243,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>351</v>
@@ -10296,25 +10296,25 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K143">
         <v>0.1962025316455696</v>
@@ -10349,22 +10349,22 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>22</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K144">
         <v>0.1951219512195122</v>
@@ -10396,22 +10396,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>352</v>
@@ -10449,16 +10449,16 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>22</v>
@@ -10493,28 +10493,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K147">
         <v>0.1904761904761905</v>
@@ -10543,7 +10543,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>354</v>
@@ -10593,25 +10593,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F149">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>355</v>
@@ -10643,7 +10643,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>356</v>
@@ -10693,25 +10693,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>357</v>
@@ -10743,7 +10743,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>358</v>
@@ -10799,16 +10799,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>25</v>
@@ -10893,25 +10893,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>361</v>
@@ -10943,25 +10943,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>362</v>
@@ -10993,25 +10993,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>363</v>
@@ -11043,25 +11043,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>364</v>
@@ -11093,25 +11093,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>365</v>
@@ -11143,7 +11143,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>366</v>
@@ -11193,25 +11193,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>367</v>
@@ -11246,22 +11246,22 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>368</v>
@@ -11299,13 +11299,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E163">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -11346,22 +11346,22 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>370</v>
@@ -11393,25 +11393,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>371</v>
@@ -11443,7 +11443,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11461,10 +11461,10 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K166">
         <v>0.1764705882352941</v>
@@ -11493,25 +11493,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>372</v>
@@ -11543,25 +11543,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>373</v>
@@ -11593,25 +11593,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>374</v>
@@ -11643,25 +11643,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>375</v>
@@ -11699,13 +11699,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -11714,7 +11714,7 @@
         <v>32</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K171">
         <v>0.1728395061728395</v>
@@ -11743,25 +11743,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>376</v>
@@ -11793,25 +11793,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>0.5</v>
+      </c>
+      <c r="F173">
+        <v>0.5</v>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173">
         <v>33</v>
-      </c>
-      <c r="E173">
-        <v>0.97</v>
-      </c>
-      <c r="F173">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>32</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>377</v>
@@ -11849,16 +11849,16 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>33</v>
@@ -11893,25 +11893,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>379</v>
@@ -11943,25 +11943,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>380</v>
@@ -11993,25 +11993,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>381</v>
@@ -12043,25 +12043,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>382</v>
@@ -12099,16 +12099,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>35</v>
@@ -12149,13 +12149,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F180">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -12193,25 +12193,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02777777777777778</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E181">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>385</v>
@@ -12243,25 +12243,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>386</v>
@@ -12293,25 +12293,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02666666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>387</v>
@@ -12343,25 +12343,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02631578947368421</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>388</v>
@@ -12393,25 +12393,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.025</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>389</v>
@@ -12443,25 +12443,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>59</v>
@@ -12493,25 +12493,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02409638554216868</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F187">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>390</v>
@@ -12543,25 +12543,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F188">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>391</v>
@@ -12599,16 +12599,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>44</v>
@@ -12643,25 +12643,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F190">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>393</v>
@@ -12693,25 +12693,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>394</v>
@@ -12743,25 +12743,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E192">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F192">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>395</v>
@@ -12799,13 +12799,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -12843,25 +12843,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02083333333333333</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>397</v>
@@ -12893,7 +12893,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>398</v>
@@ -12943,25 +12943,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02061855670103093</v>
+        <v>0.02</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>399</v>
@@ -12999,13 +12999,13 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F197">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
@@ -13043,25 +13043,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F198">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>401</v>
@@ -13093,25 +13093,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E199">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F199">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>402</v>
@@ -13143,25 +13143,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>403</v>
@@ -13193,25 +13193,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01923076923076923</v>
+        <v>0.01875</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E201">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F201">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>404</v>
@@ -13243,25 +13243,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>405</v>
@@ -13293,25 +13293,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01875</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F203">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>406</v>
@@ -13343,25 +13343,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01818181818181818</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>407</v>
@@ -13393,25 +13393,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>408</v>
@@ -13449,13 +13449,13 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F206">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
@@ -13493,25 +13493,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01666666666666667</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>410</v>
@@ -13543,25 +13543,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01666666666666667</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>411</v>
@@ -13593,25 +13593,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01428571428571429</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F209">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>412</v>
@@ -13643,25 +13643,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0131578947368421</v>
+        <v>0.0125</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>413</v>
@@ -13693,25 +13693,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01265822784810127</v>
+        <v>0.01208459214501511</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>106</v>
@@ -13743,13 +13743,13 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -13761,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>7</v>
@@ -13793,25 +13793,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01208459214501511</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>414</v>
@@ -13843,25 +13843,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01204819277108434</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>415</v>
@@ -13893,25 +13893,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01176470588235294</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>107</v>
@@ -13943,25 +13943,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01123595505617977</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>416</v>
@@ -13993,25 +13993,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0108695652173913</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>417</v>
@@ -14043,28 +14043,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0101010101010101</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K218">
         <v>0.1515151515151515</v>
@@ -14093,25 +14093,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.009803921568627451</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E219">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>101</v>
+        <v>944</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>418</v>
@@ -14143,25 +14143,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.009708737864077669</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>419</v>
@@ -14193,28 +14193,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.008403361344537815</v>
+        <v>0.008375209380234505</v>
       </c>
       <c r="C221">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D221">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>944</v>
+        <v>592</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K221">
         <v>0.15</v>
@@ -14243,25 +14243,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>108</v>
@@ -14293,13 +14293,13 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.008375209380234505</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E223">
         <v>0.91</v>
@@ -14311,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>592</v>
+        <v>123</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>420</v>
@@ -14343,25 +14343,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.00819672131147541</v>
+        <v>0.008</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E224">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F224">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>421</v>
@@ -14393,25 +14393,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.008064516129032258</v>
+        <v>0.0078125</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E225">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F225">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>422</v>
@@ -14443,25 +14443,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.008</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E226">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F226">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>423</v>
@@ -14493,25 +14493,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0078125</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>424</v>
@@ -14543,25 +14543,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.007692307692307693</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F228">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>425</v>
@@ -14593,25 +14593,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.007462686567164179</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>426</v>
@@ -14643,25 +14643,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.007407407407407408</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>427</v>
@@ -14693,25 +14693,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.007246376811594203</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E231">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>428</v>
@@ -14743,25 +14743,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.006711409395973154</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>429</v>
@@ -14793,13 +14793,13 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.006535947712418301</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D233">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="E233">
         <v>0.96</v>
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>304</v>
+        <v>780</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>430</v>
@@ -14843,25 +14843,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.006451612903225806</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>431</v>
@@ -14893,25 +14893,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.006369426751592357</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>780</v>
+        <v>188</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>432</v>
@@ -14943,25 +14943,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.005813953488372093</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D236">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E236">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>171</v>
+        <v>800</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>433</v>
@@ -14993,25 +14993,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.005291005291005291</v>
+        <v>0.004964539007092199</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>188</v>
+        <v>2806</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>434</v>
@@ -15043,13 +15043,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.004975124378109453</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="C238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E238">
         <v>0.9399999999999999</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>800</v>
+        <v>219</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>435</v>
@@ -15093,25 +15093,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.004964539007092199</v>
+        <v>0.004512635379061372</v>
       </c>
       <c r="C239">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="E239">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F239">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>2806</v>
+        <v>1103</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>436</v>
@@ -15143,25 +15143,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.004545454545454545</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E240">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F240">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>437</v>
@@ -15193,25 +15193,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.004512635379061372</v>
+        <v>0.004134366925064599</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D241">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="E241">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F241">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>1103</v>
+        <v>1927</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>438</v>
@@ -15243,25 +15243,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.00425531914893617</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>439</v>
@@ -15293,25 +15293,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.004134366925064599</v>
+        <v>0.003680981595092025</v>
       </c>
       <c r="C243">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D243">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="E243">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F243">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>1927</v>
+        <v>812</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>440</v>
@@ -15343,25 +15343,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.003968253968253968</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>441</v>
@@ -15393,25 +15393,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.003680981595092025</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E245">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F245">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>812</v>
+        <v>353</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>442</v>
@@ -15443,25 +15443,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.003436426116838488</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E246">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F246">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>443</v>
@@ -15493,25 +15493,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002824858757062147</v>
+        <v>0.002622091117666339</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D247">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="E247">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F247">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>353</v>
+        <v>3043</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>444</v>
@@ -15543,25 +15543,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002724795640326975</v>
+        <v>0.001893939393939394</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E248">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F248">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>366</v>
+        <v>527</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>445</v>
@@ -15593,25 +15593,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002622091117666339</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="C249">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F249">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>3043</v>
+        <v>531</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>446</v>
@@ -15639,30 +15639,6 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.001893939393939394</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>40</v>
-      </c>
-      <c r="E250">
-        <v>0.97</v>
-      </c>
-      <c r="F250">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250">
-        <v>527</v>
-      </c>
       <c r="J250" s="1" t="s">
         <v>447</v>
       </c>
@@ -15689,30 +15665,6 @@
       </c>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B251">
-        <v>0.001879699248120301</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251">
-        <v>14</v>
-      </c>
-      <c r="E251">
-        <v>0.93</v>
-      </c>
-      <c r="F251">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251">
-        <v>531</v>
-      </c>
       <c r="J251" s="1" t="s">
         <v>112</v>
       </c>
@@ -15870,7 +15822,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K257">
         <v>0.1311475409836066</v>
@@ -15948,7 +15900,7 @@
     </row>
     <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K260">
         <v>0.1304347826086956</v>
@@ -16052,7 +16004,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K264">
         <v>0.125</v>
@@ -16416,7 +16368,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K278">
         <v>0.125</v>
@@ -16598,7 +16550,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K285">
         <v>0.125</v>
@@ -16624,7 +16576,7 @@
     </row>
     <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K286">
         <v>0.125</v>
@@ -16936,7 +16888,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K298">
         <v>0.1239193083573487</v>
@@ -16988,7 +16940,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K300">
         <v>0.1226096737907762</v>
@@ -17118,7 +17070,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K305">
         <v>0.1180722891566265</v>
@@ -17248,7 +17200,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K310">
         <v>0.1176470588235294</v>
@@ -17326,7 +17278,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K313">
         <v>0.1153846153846154</v>
@@ -18184,7 +18136,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K346">
         <v>0.1104294478527607</v>
@@ -18210,7 +18162,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K347">
         <v>0.1102941176470588</v>
@@ -18314,7 +18266,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K351">
         <v>0.1063829787234043</v>
@@ -18366,7 +18318,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K353">
         <v>0.1060606060606061</v>
@@ -19224,7 +19176,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K386">
         <v>0.09742388758782201</v>
@@ -19302,7 +19254,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K389">
         <v>0.09677419354838709</v>
@@ -19380,7 +19332,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K392">
         <v>0.0957683741648107</v>
@@ -19536,7 +19488,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K398">
         <v>0.0948905109489051</v>
@@ -19562,7 +19514,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K399">
         <v>0.09279017135467184</v>
@@ -19614,7 +19566,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K401">
         <v>0.09230769230769231</v>
@@ -20160,7 +20112,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K422">
         <v>0.09090909090909091</v>
@@ -20394,7 +20346,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K431">
         <v>0.08771929824561403</v>
@@ -20654,7 +20606,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K441">
         <v>0.08333333333333333</v>
@@ -21096,7 +21048,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K458">
         <v>0.08217054263565891</v>
@@ -21122,7 +21074,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K459">
         <v>0.08108108108108109</v>
@@ -21226,7 +21178,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K463">
         <v>0.08</v>
@@ -21252,7 +21204,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K464">
         <v>0.07894736842105263</v>
@@ -21304,7 +21256,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K466">
         <v>0.07894736842105263</v>
@@ -21954,7 +21906,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K491">
         <v>0.07518796992481203</v>
@@ -22084,7 +22036,7 @@
     </row>
     <row r="496" spans="10:17">
       <c r="J496" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K496">
         <v>0.07300115874855156</v>
@@ -22136,7 +22088,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K498">
         <v>0.07272727272727272</v>
@@ -22188,7 +22140,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K500">
         <v>0.07203389830508475</v>
@@ -22292,7 +22244,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K504">
         <v>0.07142857142857142</v>
@@ -22552,7 +22504,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K514">
         <v>0.07142857142857142</v>
@@ -22786,7 +22738,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K523">
         <v>0.07065217391304347</v>
@@ -22994,7 +22946,7 @@
     </row>
     <row r="531" spans="10:17">
       <c r="J531" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K531">
         <v>0.06890459363957598</v>
@@ -23202,7 +23154,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K539">
         <v>0.06666666666666667</v>
@@ -23514,7 +23466,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K551">
         <v>0.06481481481481481</v>
@@ -23722,7 +23674,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K559">
         <v>0.06382978723404255</v>
@@ -23748,7 +23700,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K560">
         <v>0.06349206349206349</v>
@@ -24164,7 +24116,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K576">
         <v>0.06164383561643835</v>
@@ -24294,7 +24246,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K581">
         <v>0.06</v>
@@ -24398,7 +24350,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K585">
         <v>0.05882352941176471</v>
@@ -24502,7 +24454,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K589">
         <v>0.05882352941176471</v>
@@ -24580,7 +24532,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K592">
         <v>0.05882352941176471</v>
@@ -24840,7 +24792,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K602">
         <v>0.0576923076923077</v>
@@ -25022,7 +24974,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K609">
         <v>0.05555555555555555</v>
@@ -25256,7 +25208,7 @@
     </row>
     <row r="618" spans="10:17">
       <c r="J618" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K618">
         <v>0.05521472392638037</v>
@@ -25828,7 +25780,7 @@
     </row>
     <row r="640" spans="10:17">
       <c r="J640" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K640">
         <v>0.05208333333333334</v>
@@ -25880,7 +25832,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K642">
         <v>0.05147058823529412</v>
@@ -25906,7 +25858,7 @@
     </row>
     <row r="643" spans="10:17">
       <c r="J643" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K643">
         <v>0.05128205128205128</v>
@@ -26010,7 +25962,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K647">
         <v>0.05063291139240506</v>
@@ -26348,7 +26300,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K660">
         <v>0.04838709677419355</v>
@@ -26504,7 +26456,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K666">
         <v>0.04697776385844034</v>
@@ -26608,7 +26560,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K670">
         <v>0.0458477508650519</v>
@@ -26790,7 +26742,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K677">
         <v>0.04347826086956522</v>
@@ -27258,7 +27210,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K695">
         <v>0.04081632653061224</v>
@@ -27362,7 +27314,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K699">
         <v>0.04040404040404041</v>
@@ -27596,7 +27548,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K708">
         <v>0.03846153846153846</v>
@@ -27726,7 +27678,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K713">
         <v>0.03703703703703703</v>
@@ -28142,7 +28094,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K729">
         <v>0.03333333333333333</v>
@@ -28194,7 +28146,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K731">
         <v>0.03296703296703297</v>
@@ -28480,7 +28432,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K742">
         <v>0.0303030303030303</v>
@@ -28636,7 +28588,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K748">
         <v>0.02941176470588235</v>
@@ -29078,7 +29030,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K765">
         <v>0.02389705882352941</v>
@@ -29338,7 +29290,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K775">
         <v>0.02205882352941177</v>
@@ -29676,7 +29628,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K788">
         <v>0.01818181818181818</v>
@@ -29728,7 +29680,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K790">
         <v>0.01754385964912281</v>
@@ -29780,7 +29732,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K792">
         <v>0.01724137931034483</v>
@@ -29832,7 +29784,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K794">
         <v>0.01671309192200557</v>
@@ -29884,7 +29836,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K796">
         <v>0.01666666666666667</v>
@@ -30456,7 +30408,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K818">
         <v>0.0101010101010101</v>
